--- a/public/documents/Unconfirmed-Machine Learning and Artificial Intelligence.xlsx
+++ b/public/documents/Unconfirmed-Machine Learning and Artificial Intelligence.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95" count="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294" count="294">
   <x:si>
     <x:t>name</x:t>
   </x:si>
@@ -40,6 +40,792 @@
     <x:t>teamId</x:t>
   </x:si>
   <x:si>
+    <x:t>Mourya Suraj Pouhari</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9714925431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160430119065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mechanical engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spm1897@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHANTILAL SHAH ENGINEERING COLLEGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK425783</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Galsar Rajkumar Manharshin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9925967800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150610119019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mechanical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rajgalsar123@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOVERNMENT ENGINEERING COLLEGE, PALANPUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK191767</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keshwala Bharat rajubhai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7575041445</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160310105021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chemical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b.r.keshwala1445@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUKHDHIRJI ENGINEERING COLLEGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK185313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khunti Rajasi ramdebhai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7622883163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160310105023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khuntirajasi111@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L.e.college.morbi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK098982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakhani Abhinav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9586392952</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15012041078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mechatronics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>akshu3398@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U.V.P.C.E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK964389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gamit Pratikkumar Pravinbhai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9586424281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160310119013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pratikgamit254@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK078752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harsh Patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9974755290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150770107125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>harshpatel816.hp@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SILVER OAK COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK407357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SISANGIYA RAJ MAHESHBHAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8155098069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160310119047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MECHANICAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rajms1298@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK049887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joshi Saurav Devendrabhai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7359436967</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150220119037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sauravjoshi654@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOVERNMENT ENGINEERING COLLEGE, PATAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK537153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kothari manav nareshbhai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9824689199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1418BECE30059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer-Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manavkothari56@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LDRP INSTITUTE OF TECHNOLOGY &amp; RESEARCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK848819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kaushal Garchar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8460584627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160210119042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kaushalgarchar4@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOVERNMENT ENGINEERING COLLEGE, BHAVNAGAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK160390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lachhwani Jay Rajkumar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7405134837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150610119024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jailachhwani@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK149440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parikh Viranchi Pankaj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9925658551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150320132034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>parikh.viranchi@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L.J.INSTITUTE OF technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK507600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harshil Desai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9898020806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150333131005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer Science and Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>harshildesai555@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHATMA GANDHI INSTITUTE OF TECHNICAL EDUCATION &amp; RESEARCH CENTRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK864561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tapan Naik</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9978966559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110330131101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer science and technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tapannaik32@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK306623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khatri parth bipinchandra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9722257270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160803109020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Electrical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>parthkhatri39@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VADODARA INSTITUTE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK701925</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gohil Yashpalsinh Kiritsinh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9724229111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160310105013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yashpal1301gohil@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK655596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harman Singh Farwah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9099155449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140320132018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Information And Communication Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hfarwah15@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L. J. INSTITUTE OF ENGINEERING AND TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK391617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kapil Likhar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8401294061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151250109006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kapil.likhar17@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHREE SWAMINARAYAN INSTITUTE OF TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK168884</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jayesh kishanbhai Suthar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7405140376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150220107119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>computer engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jayeshsuthar569@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK502809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patel Aayush Jugalkishor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8511337825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161250107022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patelaayush98@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK861201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meet Barot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7283802424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151250119002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>meetbarot2012@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK808383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEVIN KETANKUMAR SHAH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8758834341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150110111027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELECTRONICS AND COMMUNICATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kevin.shah2@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G.H. PATEL COLLEGE OF ENGINEERING AND TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK088973</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aastha vaidya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9687425820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150750111014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vaidyaaastha221@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHANKERSINH VAGHELA BAPU INSTITUTE OF TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK927967</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nikunj nakum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9879075840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140330107034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nakumnikunj96@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK686652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pathan FaisalKhan Rahematullakhan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9898168114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150610119047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mechanical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>faisalkhanpathan.9898@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK656480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shubham nhavi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8141308536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150500119023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shubhamnhavi73@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIGMA INSTITUTE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK865552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pithava mahesh zalabhI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7228845365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160310116045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maheshpithava143@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L. E collage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK359696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Komal Baid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8000184792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150750111006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>komalbaid81@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK882053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MITESH PRAJAPATI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7622866722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150150119127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>miteshrockstarz@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOVERNMENT ENGINEERING COLLEGE, BHUJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK747951</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bansari kotecha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9033336147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160280702007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bansari1002@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK811625</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jivani Abhaykumar Laljihai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9714500807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150520134015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAnufacturing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kanojivani17@outlook.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CENTRAL INSTITUTE OF PLASTICS ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK088750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PANCHAL PRATIK PREMCHANDBHAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9979864157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150243119518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pratikpanchal812@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HASMUKH GOSWAMI COLLEGE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK910485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PATEL JEEL R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8140716735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160953109003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELECTRICAL ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jil735@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSTITUTE OF TECHNOLOGY &amp; MANAGEMENT UNIVERSE (ITM UNIVERSE) VADODARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK817502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thummar jaimeen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9638401192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160510107114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jaimeenthummar7007@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALPHA COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK768542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANAN PANDYA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9408527395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160033119544</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mananpandya98@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATMIYA INSTITUTE OF TECHNOLOGY &amp; SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK768656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vrushang patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9714728457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150320132040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Information and communication technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vrushangpatel25@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L.J.institute of engineering and technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK615685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanasagara pulatsya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9712947010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160280702005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pkanasagara@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK946434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YAKSH H THAKAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9879861531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150320132059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Information and Communication Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yakshthakar123@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L. J. INSTITUTE OF ENGINEERING AND TECHNOLOGY (BE)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK632102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RATHOD KASHYAPKUMAR KANTILAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8264855323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160470119096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kashyapkumarrathod@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V.V.P. ENGINEERING COLLEGE , RAJKOT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK318056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bhadresh savani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9624173599</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140110120046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mechtronics engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bhadreshpsavani@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G H Patel College of Engineering and Technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK090073</x:t>
+  </x:si>
+  <x:si>
     <x:t>Yash Pandya</x:t>
   </x:si>
   <x:si>
@@ -52,108 +838,12 @@
     <x:t>INFORMATION &amp; TECHNOLOGY</x:t>
   </x:si>
   <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
     <x:t>yashp614929@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>L. J. INSTITUTE OF ENGINEERING AND TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
     <x:t>WK803729</x:t>
   </x:si>
   <x:si>
-    <x:t>YAKSH H THAKAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9879861531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150320132059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Information and Communication Technology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yakshthakar123@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L. J. INSTITUTE OF ENGINEERING AND TECHNOLOGY (BE)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK632102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vrushang patel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9714728457</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150320132040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Information and communication technology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vrushangpatel25@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L.J.institute of engineering and technology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK615685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANAN PANDYA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9408527395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160033119544</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MECHANICAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mananpandya98@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ATMIYA INSTITUTE OF TECHNOLOGY &amp; SCIENCE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK768656</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thummar jaimeen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9638401192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160510107114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jaimeenthummar7007@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALPHA COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK768542</x:t>
-  </x:si>
-  <x:si>
     <x:t>Tivari Sandip Rameshkumar</x:t>
   </x:si>
   <x:si>
@@ -163,9 +853,6 @@
     <x:t>150460107093</x:t>
   </x:si>
   <x:si>
-    <x:t>Computer Engineering</x:t>
-  </x:si>
-  <x:si>
     <x:t>tivarisandeep410@gmail.com</x:t>
   </x:si>
   <x:si>
@@ -175,247 +862,40 @@
     <x:t>WK675957</x:t>
   </x:si>
   <x:si>
-    <x:t>PANCHAL PRATIK PREMCHANDBHAI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9979864157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150243119518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pratikpanchal812@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HASMUKH GOSWAMI COLLEGE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK910485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bansari kotecha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9033336147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160280702007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computer engineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bansari1002@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK811625</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MITESH PRAJAPATI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7622866722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150150119127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mechanical</x:t>
-  </x:si>
-  <x:si>
-    <x:t>miteshrockstarz@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOVERNMENT ENGINEERING COLLEGE, BHUJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK747951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shubham nhavi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8141308536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150500119023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mechanical engineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shubhamnhavi73@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SIGMA INSTITUTE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK865552</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Komal Baid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8000184792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150750111006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>komalbaid81@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHANKERSINH VAGHELA BAPU INSTITUTE OF TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK882053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aastha vaidya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9687425820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150750111014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vaidyaaastha221@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK927967</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEVIN KETANKUMAR SHAH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8758834341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150110111027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELECTRONICS AND COMMUNICATION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kevin.shah2@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G.H. PATEL COLLEGE OF ENGINEERING AND TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK088973</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meet Barot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7283802424</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151250119002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>meetbarot2012@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHREE SWAMINARAYAN INSTITUTE OF TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK808383</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pithava mahesh zalabhI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7228845365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160310116045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maheshpithava143@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L. E collage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK359696</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Patel Aayush Jugalkishor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8511337825</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161250107022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patelaayush98@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK861201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanasagara pulatsya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9712947010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160280702005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pkanasagara@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK946434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RATHOD KASHYAPKUMAR KANTILAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8264855323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160470119096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kashyapkumarrathod@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V.V.P. ENGINEERING COLLEGE , RAJKOT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK318056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jayesh kishanbhai Suthar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7405140376</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150220107119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>computer engineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jayeshsuthar569@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOVERNMENT ENGINEERING COLLEGE, PATAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK502809</x:t>
+    <x:t>Karan kapoor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8128593665</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151040119011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151040119011@gperi.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUJARAT POWER ENGINEERING AND RESEARCH INSTITUTE (GPERI)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK096436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sanket Ramani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9723031228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150540107062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150540107062@darshan.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DARSHAN INSTITUTE OF ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK783287</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -870,7 +1350,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>28</x:v>
@@ -893,409 +1373,1085 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>36</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="G8" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="H8" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="G9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="G11" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="H11" s="0" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="H12" s="0" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="H15" s="0" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="G16" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="G17" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="H17" s="0" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="D18" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="G18" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="D19" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="E19" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
+      <x:c r="G19" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
+      <x:c r="H19" s="0" t="s">
         <x:v>125</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="G20" s="0" t="s">
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="H20" s="0" t="s">
+      <x:c r="B21" s="0" t="s">
         <x:v>133</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8">
+      <x:c r="A26" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8">
+      <x:c r="A27" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8">
+      <x:c r="A28" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8">
+      <x:c r="A29" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:8">
+      <x:c r="A30" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8">
+      <x:c r="A31" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:8">
+      <x:c r="A32" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8">
+      <x:c r="A33" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8">
+      <x:c r="A34" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:8">
+      <x:c r="A35" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8">
+      <x:c r="A36" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8">
+      <x:c r="A37" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:8">
+      <x:c r="A38" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8">
+      <x:c r="A39" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:8">
+      <x:c r="A40" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8">
+      <x:c r="A41" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8">
+      <x:c r="A42" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8">
+      <x:c r="A43" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
+      <x:c r="A44" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8">
+      <x:c r="A45" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:8">
+      <x:c r="A46" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>293</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
